--- a/Calculations & Graphs.xlsx
+++ b/Calculations & Graphs.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12048" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
+    <sheet name="1st_try" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd_try" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Congruent</t>
   </si>
@@ -56,11 +62,104 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>ND Congruent</t>
+  </si>
+  <si>
+    <t>ND Incongruent</t>
+  </si>
+  <si>
+    <t>Zeilenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>16-18</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>Anzahl von Congruent</t>
+  </si>
+  <si>
+    <t>Anzahl von Congruent2</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>24-26</t>
+  </si>
+  <si>
+    <t>26-28</t>
+  </si>
+  <si>
+    <t>34-36</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>28-30</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>32-34</t>
+  </si>
+  <si>
+    <t>&gt;36</t>
+  </si>
+  <si>
+    <t>Distribution "Congruent"</t>
+  </si>
+  <si>
+    <t>Distribution "Incongruent"</t>
+  </si>
+  <si>
+    <t>Histogram "Congruent"</t>
+  </si>
+  <si>
+    <t>Histogram "Incongruent"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +476,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -493,6 +604,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -538,11 +717,38 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -588,15 +794,230 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -627,6 +1048,12 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,7 +1155,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stroopdata!$G$1</c:f>
+              <c:f>'1st_try'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +1176,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>stroopdata!$F$2:$F$9</c:f>
+              <c:f>'1st_try'!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -782,7 +1209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$G$2:$G$9</c:f>
+              <c:f>'1st_try'!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -819,7 +1246,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>stroopdata!$H$1</c:f>
+              <c:f>'1st_try'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +1267,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>stroopdata!$F$2:$F$9</c:f>
+              <c:f>'1st_try'!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -873,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$H$2:$H$9</c:f>
+              <c:f>'1st_try'!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -915,11 +1342,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="535685776"/>
-        <c:axId val="535682248"/>
+        <c:axId val="375398304"/>
+        <c:axId val="375399872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="535685776"/>
+        <c:axId val="375398304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1446,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535682248"/>
+        <c:crossAx val="375399872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535682248"/>
+        <c:axId val="375399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1566,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535685776"/>
+        <c:crossAx val="375398304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +1731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stroopdata!$N$1</c:f>
+              <c:f>'1st_try'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1325,7 +1752,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$N$2:$N$24</c:f>
+              <c:f>'1st_try'!$O$2:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1408,7 +1835,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>stroopdata!$O$1</c:f>
+              <c:f>'1st_try'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1429,7 +1856,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$O$2:$O$24</c:f>
+              <c:f>'1st_try'!$P$2:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1443,7 +1870,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>stroopdata!$P$1</c:f>
+              <c:f>'1st_try'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1476,7 +1903,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$P$2:$P$24</c:f>
+              <c:f>'1st_try'!$Q$2:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1581,11 +2008,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="616726800"/>
-        <c:axId val="616721704"/>
+        <c:axId val="375400264"/>
+        <c:axId val="375403008"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="616726800"/>
+        <c:axId val="375400264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +2110,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616721704"/>
+        <c:crossAx val="375403008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1691,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616721704"/>
+        <c:axId val="375403008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +2230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616726800"/>
+        <c:crossAx val="375400264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,6 +2278,2011 @@
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of Experiment Results for each Subject</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Congruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2nd_try'!$A$4:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.004000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incongruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2nd_try'!$B$4:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.571999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.428999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="458410936"/>
+        <c:axId val="458411328"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="458410936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458411328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458411328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> to Complete the Experiment</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458410936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> for Sample Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8893110389173376E-2"/>
+          <c:y val="0.17345077303293294"/>
+          <c:w val="0.82489629792779395"/>
+          <c:h val="0.63849953062436537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Histogram "Congruent"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2nd_try'!$D$34:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20-22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22-24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24-26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26-28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28-30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30-32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32-34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34-36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2nd_try'!$E$34:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Histogram "Incongruent"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2nd_try'!$D$34:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20-22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22-24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24-26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26-28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28-30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30-32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32-34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34-36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2nd_try'!$H$34:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="448874384"/>
+        <c:axId val="448875168"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distribution "Congruent"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2nd_try'!$D$4:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.692</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.327999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2nd_try'!$E$4:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.353830201946869E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9276155137901697E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6539233558148506E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9557481752519318E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0909419149573535E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5065089521935033E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8348849231329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9176197315901757E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10087816321201472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10284588866696108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11004592602913879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11572496033899676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11499074696706647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11403493469751469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11389572926449731</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11089183580022376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10852909225212969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8662862671132015E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4427262520711741E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1710465389809334E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6057473351176272E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0371726943487953E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0010477791097129E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4383469180793662E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2nd_try'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distribution "Incongruent"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2nd_try'!$G$4:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.428999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.571999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.255000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2nd_try'!$H$4:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.4324579733501934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2335602361301317E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2673973890945316E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3601104852603297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8469772442118012E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5572482458456247E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6533458845392413E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1562123458211044E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9486091651150156E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0069376028407913E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1796969533541528E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.231069115290926E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3351992661658603E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3530239710131113E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4747804749712052E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4712592745461945E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3574678618203141E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8267111043015175E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3535851761636975E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3133598747374309E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8008016169297955E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6207095728603926E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8328737961119538E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6235596631898142E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="525533600"/>
+        <c:axId val="456365520"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="448874384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>Lower Bound for Histogram Bin</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448875168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448875168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Number of Samples</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in Bin</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448874384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456365520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Frequency in Distribution</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525533600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525533600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="38"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Value for Distribution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456365520"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2008,6 +4440,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3027,17 +5539,1036 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -3061,13 +6592,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>735330</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -3092,54 +6623,1036 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Benjamin Söllner" refreshedDate="42206.88621527778" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="24">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Congruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.6300000000000008" maxValue="22.327999999999999" count="24">
+        <n v="12.079000000000001"/>
+        <n v="16.791"/>
+        <n v="9.5640000000000001"/>
+        <n v="8.6300000000000008"/>
+        <n v="14.669"/>
+        <n v="12.238"/>
+        <n v="14.692"/>
+        <n v="8.9870000000000001"/>
+        <n v="9.4009999999999998"/>
+        <n v="14.48"/>
+        <n v="22.327999999999999"/>
+        <n v="15.298"/>
+        <n v="15.073"/>
+        <n v="16.928999999999998"/>
+        <n v="18.2"/>
+        <n v="12.13"/>
+        <n v="18.495000000000001"/>
+        <n v="10.638999999999999"/>
+        <n v="11.343999999999999"/>
+        <n v="12.369"/>
+        <n v="12.944000000000001"/>
+        <n v="14.233000000000001"/>
+        <n v="19.71"/>
+        <n v="16.004000000000001"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="24" groupInterval="2"/>
+        <groupItems count="14">
+          <s v="&lt;0"/>
+          <s v="0-2"/>
+          <s v="2-4"/>
+          <s v="4-6"/>
+          <s v="6-8"/>
+          <s v="8-10"/>
+          <s v="10-12"/>
+          <s v="12-14"/>
+          <s v="14-16"/>
+          <s v="16-18"/>
+          <s v="18-20"/>
+          <s v="20-22"/>
+          <s v="22-24"/>
+          <s v="&gt;24"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Incongruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.686999999999999" maxValue="35.255000000000003" count="24">
+        <n v="19.277999999999999"/>
+        <n v="18.741"/>
+        <n v="21.213999999999999"/>
+        <n v="15.686999999999999"/>
+        <n v="22.803000000000001"/>
+        <n v="20.878"/>
+        <n v="24.571999999999999"/>
+        <n v="17.393999999999998"/>
+        <n v="20.762"/>
+        <n v="26.282"/>
+        <n v="24.524000000000001"/>
+        <n v="18.643999999999998"/>
+        <n v="17.510000000000002"/>
+        <n v="20.329999999999998"/>
+        <n v="35.255000000000003"/>
+        <n v="22.158000000000001"/>
+        <n v="25.138999999999999"/>
+        <n v="20.428999999999998"/>
+        <n v="17.425000000000001"/>
+        <n v="34.287999999999997"/>
+        <n v="23.893999999999998"/>
+        <n v="17.96"/>
+        <n v="22.058"/>
+        <n v="21.157"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ND Congruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.0152171861375982E-3" maxValue="0.11025073139101826"/>
+    </cacheField>
+    <cacheField name="ND Incongruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8449849468141742E-3" maxValue="8.3160762738790056E-2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Benjamin Söllner" refreshedDate="42206.893098958331" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="24">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle6"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Congruent" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.6300000000000008" maxValue="22.327999999999999" count="24">
+        <n v="8.6300000000000008"/>
+        <n v="8.9870000000000001"/>
+        <n v="9.4009999999999998"/>
+        <n v="9.5640000000000001"/>
+        <n v="10.638999999999999"/>
+        <n v="11.343999999999999"/>
+        <n v="12.079000000000001"/>
+        <n v="12.13"/>
+        <n v="12.238"/>
+        <n v="12.369"/>
+        <n v="12.944000000000001"/>
+        <n v="14.233000000000001"/>
+        <n v="14.48"/>
+        <n v="14.669"/>
+        <n v="14.692"/>
+        <n v="15.073"/>
+        <n v="15.298"/>
+        <n v="16.004000000000001"/>
+        <n v="16.791"/>
+        <n v="16.928999999999998"/>
+        <n v="18.2"/>
+        <n v="18.495000000000001"/>
+        <n v="19.71"/>
+        <n v="22.327999999999999"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="36" groupInterval="2"/>
+        <groupItems count="20">
+          <s v="&lt;0"/>
+          <s v="0-2"/>
+          <s v="2-4"/>
+          <s v="4-6"/>
+          <s v="6-8"/>
+          <s v="8-10"/>
+          <s v="10-12"/>
+          <s v="12-14"/>
+          <s v="14-16"/>
+          <s v="16-18"/>
+          <s v="18-20"/>
+          <s v="20-22"/>
+          <s v="22-24"/>
+          <s v="24-26"/>
+          <s v="26-28"/>
+          <s v="28-30"/>
+          <s v="30-32"/>
+          <s v="32-34"/>
+          <s v="34-36"/>
+          <s v="&gt;36"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="ND Congruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4383469180793662E-3" maxValue="0.11572496033899676"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Benjamin Söllner" refreshedDate="42206.893554050926" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="24">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabelle7"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Incongruent" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.686999999999999" maxValue="35.255000000000003" count="24">
+        <n v="15.686999999999999"/>
+        <n v="17.393999999999998"/>
+        <n v="17.425000000000001"/>
+        <n v="17.510000000000002"/>
+        <n v="17.96"/>
+        <n v="18.643999999999998"/>
+        <n v="18.741"/>
+        <n v="19.277999999999999"/>
+        <n v="20.329999999999998"/>
+        <n v="20.428999999999998"/>
+        <n v="20.762"/>
+        <n v="20.878"/>
+        <n v="21.157"/>
+        <n v="21.213999999999999"/>
+        <n v="22.058"/>
+        <n v="22.158000000000001"/>
+        <n v="22.803000000000001"/>
+        <n v="23.893999999999998"/>
+        <n v="24.524000000000001"/>
+        <n v="24.571999999999999"/>
+        <n v="25.138999999999999"/>
+        <n v="26.282"/>
+        <n v="34.287999999999997"/>
+        <n v="35.255000000000003"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="36" groupInterval="2"/>
+        <groupItems count="20">
+          <s v="&lt;0"/>
+          <s v="0-2"/>
+          <s v="2-4"/>
+          <s v="4-6"/>
+          <s v="6-8"/>
+          <s v="8-10"/>
+          <s v="10-12"/>
+          <s v="12-14"/>
+          <s v="14-16"/>
+          <s v="16-18"/>
+          <s v="18-20"/>
+          <s v="20-22"/>
+          <s v="22-24"/>
+          <s v="24-26"/>
+          <s v="26-28"/>
+          <s v="28-30"/>
+          <s v="30-32"/>
+          <s v="32-34"/>
+          <s v="34-36"/>
+          <s v="&gt;36"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="ND Incongruent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6235596631898142E-3" maxValue="8.4747804749712052E-2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.511892810077037E-2"/>
+    <n v="7.0664036973794364E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8.2816869086706255E-2"/>
+    <n v="6.5876339588045021E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5.1070669927964239E-2"/>
+    <n v="8.2010022699725446E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.5834897851503338E-2"/>
+    <n v="3.4830522469336045E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.10878875791688437"/>
+    <n v="8.2052033506612707E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="9.7336023364572047E-2"/>
+    <n v="8.0856783897292034E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="0.10866824781192784"/>
+    <n v="7.2157607944818861E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="4.1356380135800327E-2"/>
+    <n v="5.2282285550301053E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="4.8240158813218588E-2"/>
+    <n v="8.0370805262481887E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="0.10961583741477098"/>
+    <n v="5.6001342670473485E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="8.0152171861375982E-3"/>
+    <n v="7.2539727250388431E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="0.10401177387866775"/>
+    <n v="6.4959912862976685E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="0.10606442421073572"/>
+    <n v="5.3499048010558881E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="8.0395035842131285E-2"/>
+    <n v="7.8183312357594292E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="5.7113562994744446E-2"/>
+    <n v="1.8449849468141742E-3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="9.5844722934267268E-2"/>
+    <n v="8.3127491970809569E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="5.1831496357364386E-2"/>
+    <n v="6.728158601129057E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="7.0689918971588342E-2"/>
+    <n v="7.873567336318181E-2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="8.338439290701774E-2"/>
+    <n v="5.2607730769702252E-2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="9.905728900888279E-2"/>
+    <n v="3.1534156898833632E-3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="0.10533000399309589"/>
+    <n v="7.7028470137146254E-2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="0.11025073139101826"/>
+    <n v="5.8170487126872089E-2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="3.2397228442977835E-2"/>
+    <n v="8.3160762738790056E-2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="9.5394464125250308E-2"/>
+    <n v="8.1841506567369549E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+  <r>
+    <x v="0"/>
+    <n v="3.353830201946869E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3.9276155137901697E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.6539233558148506E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.9557481752519318E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7.0909419149573535E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.5065089521935033E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9.8348849231329E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9.9176197315901757E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.10087816321201472"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.10284588866696108"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.11004592602913879"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.11572496033899676"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.11499074696706647"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.11403493469751469"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.11389572926449731"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.11089183580022376"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.10852909225212969"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="9.8662862671132015E-2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="8.4427262520711741E-2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="8.1710465389809334E-2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="5.6057473351176272E-2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="5.0371726943487953E-2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="3.0010477791097129E-2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="6.4383469180793662E-3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+  <r>
+    <x v="0"/>
+    <n v="3.4324579733501934E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5.2335602361301317E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.2673973890945316E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.3601104852603297E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5.8469772442118012E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6.5572482458456247E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="6.6533458845392413E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7.1562123458211044E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7.9486091651150156E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8.0069376028407913E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8.1796969533541528E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8.231069115290926E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="8.3351992661658603E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="8.3530239710131113E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="8.4747804749712052E-2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="8.4712592745461945E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="8.3574678618203141E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="7.8267111043015175E-2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="7.3535851761636975E-2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="7.3133598747374309E-2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="6.8008016169297955E-2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="5.6207095728603926E-2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2.8328737961119538E-3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1.6235596631898142E-3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E38:G46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Anzahl von Congruent" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Anzahl von Congruent2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="5" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G33:H54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" numFmtId="165">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Histogram &quot;Incongruent&quot;" fld="0" subtotal="count" baseField="0" baseItem="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D33:E54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" numFmtId="165">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Histogram &quot;Congruent&quot;" fld="0" subtotal="count" baseField="0" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:C24" totalsRowShown="0">
-  <autoFilter ref="B1:C24"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:E25" totalsRowShown="0">
+  <autoFilter ref="B1:E25"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Congruent"/>
+    <tableColumn id="2" name="Incongruent"/>
+    <tableColumn id="3" name="ND Congruent" dataDxfId="9">
+      <calculatedColumnFormula>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="ND Incongruent">
+      <calculatedColumnFormula>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="G1:I9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="G1:I9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Bin Upper Bound" dataDxfId="12"/>
+    <tableColumn id="2" name="Congruent" dataDxfId="11"/>
+    <tableColumn id="3" name="Incongruent" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle16" displayName="Tabelle16" ref="O1:Q24" totalsRowShown="0">
+  <autoFilter ref="O1:Q24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Congruent"/>
+    <tableColumn id="3" name="Spalte1"/>
     <tableColumn id="2" name="Incongruent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A27:C29" totalsRowShown="0">
-  <autoFilter ref="A27:C29"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Measure"/>
-    <tableColumn id="2" name="Congruent" dataDxfId="0">
-      <calculatedColumnFormula>AVERAGE(B2:B25)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Incongruent">
-      <calculatedColumnFormula>_xlfn.STDEV.S(C1:C24)</calculatedColumnFormula>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="D3:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="D3:E27"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Congruent" dataDxfId="2"/>
+    <tableColumn id="2" name="Distribution &quot;Congruent&quot;" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.NORM.DIST('2nd_try'!$D4,E$30,E$31,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="F1:H9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="F1:H9"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Bin Upper Bound" dataDxfId="5"/>
-    <tableColumn id="2" name="Congruent" dataDxfId="4"/>
-    <tableColumn id="3" name="Incongruent" dataDxfId="3"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="G3:H27" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="G3:H27"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Incongruent" dataDxfId="0"/>
+    <tableColumn id="2" name="Distribution &quot;Incongruent&quot;" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.NORM.DIST('2nd_try'!$G4,H$30,H$31,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle16" displayName="Tabelle16" ref="N1:P24" totalsRowShown="0">
-  <autoFilter ref="N1:P24"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Congruent"/>
-    <tableColumn id="3" name="Spalte1"/>
-    <tableColumn id="2" name="Incongruent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3406,57 +7919,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="6" max="8" width="11.5546875" style="2"/>
+    <col min="3" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" t="s">
+      <c r="K1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>12.079000000000001</v>
       </c>
       <c r="C2">
         <v>19.277999999999999</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
+      <c r="D2">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>9.511892810077037E-2</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.0664036973794364E-2</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -3464,458 +7991,645 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2">
         <v>12.079000000000001</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>19.277999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>16.791</v>
       </c>
       <c r="C3">
         <v>18.741</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>8.2816869086706255E-2</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>6.5876339588045021E-2</v>
+      </c>
+      <c r="G3" s="2">
         <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3">
         <v>16.791</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>18.741</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>9.5640000000000001</v>
       </c>
       <c r="C4">
         <v>21.213999999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>5.1070669927964239E-2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.2010022699725446E-2</v>
+      </c>
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4">
+      <c r="K4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4">
         <v>9.5640000000000001</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>21.213999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>8.6300000000000008</v>
       </c>
       <c r="C5">
         <v>15.686999999999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>3.5834897851503338E-2</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>3.4830522469336045E-2</v>
+      </c>
+      <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5">
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5">
         <v>8.6300000000000008</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>15.686999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14.669</v>
       </c>
       <c r="C6">
         <v>22.803000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10878875791688437</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.2052033506612707E-2</v>
+      </c>
+      <c r="G6" s="2">
         <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6">
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6">
         <v>14.669</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>22.803000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>12.238</v>
       </c>
       <c r="C7">
         <v>20.878</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D7">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>9.7336023364572047E-2</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.0856783897292034E-2</v>
+      </c>
+      <c r="G7" s="2">
         <v>25</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>12</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7">
+      <c r="K7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7">
         <v>12.238</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>20.878</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>14.692</v>
       </c>
       <c r="C8">
         <v>24.571999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="D8">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10866824781192784</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.2157607944818861E-2</v>
+      </c>
+      <c r="G8" s="2">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8">
+      <c r="K8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8">
         <v>14.692</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24.571999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8.9870000000000001</v>
       </c>
       <c r="C9">
         <v>17.393999999999998</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D9">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>4.1356380135800327E-2</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>5.2282285550301053E-2</v>
+      </c>
+      <c r="G9" s="2">
         <v>35</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9">
+      <c r="K9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9">
         <v>8.9870000000000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>17.393999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9.4009999999999998</v>
       </c>
       <c r="C10">
         <v>20.762</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10">
+      <c r="D10">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>4.8240158813218588E-2</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.0370805262481887E-2</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10">
         <v>9.4009999999999998</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>20.762</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>14.48</v>
       </c>
       <c r="C11">
         <v>26.282</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11">
+      <c r="D11">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10961583741477098</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>5.6001342670473485E-2</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11">
         <v>14.48</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>26.282</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>22.327999999999999</v>
       </c>
       <c r="C12">
         <v>24.524000000000001</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12">
+      <c r="D12">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>8.0152171861375982E-3</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.2539727250388431E-2</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12">
         <v>22.327999999999999</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>24.524000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>15.298</v>
       </c>
       <c r="C13">
         <v>18.643999999999998</v>
       </c>
-      <c r="N13">
+      <c r="D13">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10401177387866775</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>6.4959912862976685E-2</v>
+      </c>
+      <c r="O13">
         <v>15.298</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>18.643999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>15.073</v>
       </c>
       <c r="C14">
         <v>17.510000000000002</v>
       </c>
-      <c r="N14">
+      <c r="D14">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10606442421073572</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>5.3499048010558881E-2</v>
+      </c>
+      <c r="O14">
         <v>15.073</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>16.928999999999998</v>
       </c>
       <c r="C15">
         <v>20.329999999999998</v>
       </c>
-      <c r="N15">
+      <c r="D15">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>8.0395035842131285E-2</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.8183312357594292E-2</v>
+      </c>
+      <c r="O15">
         <v>16.928999999999998</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>18.2</v>
       </c>
       <c r="C16">
         <v>35.255000000000003</v>
       </c>
-      <c r="N16">
+      <c r="D16">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>5.7113562994744446E-2</v>
+      </c>
+      <c r="E16">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>1.8449849468141742E-3</v>
+      </c>
+      <c r="O16">
         <v>18.2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>35.255000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>12.13</v>
       </c>
       <c r="C17">
         <v>22.158000000000001</v>
       </c>
-      <c r="N17">
+      <c r="D17">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>9.5844722934267268E-2</v>
+      </c>
+      <c r="E17">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.3127491970809569E-2</v>
+      </c>
+      <c r="O17">
         <v>12.13</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>22.158000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>18.495000000000001</v>
       </c>
       <c r="C18">
         <v>25.138999999999999</v>
       </c>
-      <c r="N18">
+      <c r="D18">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>5.1831496357364386E-2</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>6.728158601129057E-2</v>
+      </c>
+      <c r="O18">
         <v>18.495000000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>25.138999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>10.638999999999999</v>
       </c>
       <c r="C19">
         <v>20.428999999999998</v>
       </c>
-      <c r="N19">
+      <c r="D19">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>7.0689918971588342E-2</v>
+      </c>
+      <c r="E19">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.873567336318181E-2</v>
+      </c>
+      <c r="O19">
         <v>10.638999999999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>20.428999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>11.343999999999999</v>
       </c>
       <c r="C20">
         <v>17.425000000000001</v>
       </c>
-      <c r="N20">
+      <c r="D20">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>8.338439290701774E-2</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>5.2607730769702252E-2</v>
+      </c>
+      <c r="O20">
         <v>11.343999999999999</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>17.425000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>12.369</v>
       </c>
       <c r="C21">
         <v>34.287999999999997</v>
       </c>
-      <c r="N21">
+      <c r="D21">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>9.905728900888279E-2</v>
+      </c>
+      <c r="E21">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>3.1534156898833632E-3</v>
+      </c>
+      <c r="O21">
         <v>12.369</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>34.287999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>12.944000000000001</v>
       </c>
       <c r="C22">
         <v>23.893999999999998</v>
       </c>
-      <c r="N22">
+      <c r="D22">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.10533000399309589</v>
+      </c>
+      <c r="E22">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>7.7028470137146254E-2</v>
+      </c>
+      <c r="O22">
         <v>12.944000000000001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>23.893999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>14.233000000000001</v>
       </c>
       <c r="C23">
         <v>17.96</v>
       </c>
-      <c r="N23">
+      <c r="D23">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>0.11025073139101826</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>5.8170487126872089E-2</v>
+      </c>
+      <c r="O23">
         <v>14.233000000000001</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>17.96</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>19.71</v>
       </c>
       <c r="C24">
         <v>22.058</v>
       </c>
-      <c r="N24">
+      <c r="D24">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>3.2397228442977835E-2</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.3160762738790056E-2</v>
+      </c>
+      <c r="O24">
         <v>19.71</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>22.058</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>16.004000000000001</v>
       </c>
       <c r="C25">
         <v>21.157</v>
       </c>
-      <c r="N25">
+      <c r="D25" s="18">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Congruent]],B$28,B$29,FALSE)</f>
+        <v>9.5394464125250308E-2</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.NORM.DIST(Tabelle1[[#This Row],[Incongruent]],C$28,C$29,FALSE)</f>
+        <v>8.1841506567369549E-2</v>
+      </c>
+      <c r="O25">
         <v>16.004000000000001</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>21.157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">AVERAGE(B2:B25)</f>
+      <c r="B28" s="15">
+        <f>AVERAGE(B2:B25)</f>
         <v>14.051125000000001</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="16">
         <f>AVERAGE(C2:C25)</f>
         <v>22.015916666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>14.136869565217392</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="9">
+        <f>_xlfn.STDEV.S(B3:B26)</f>
+        <v>3.6139206398735824</v>
+      </c>
+      <c r="C29" s="7">
         <f>_xlfn.STDEV.S(C2:C25)</f>
         <v>4.7970571224691367</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -3924,25 +8638,25 @@
         <v>7.9647916666666685</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32">
         <f>SQRT(B29^2+C29^2)</f>
-        <v>14.928591297915608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.0060119403424563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B33">
         <f>B32/SQRT(COUNT(B2:B25))</f>
-        <v>3.0472859382038746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2259720535751784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -3950,27 +8664,1030 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B35">
         <f>B31/B33</f>
-        <v>2.6137329506272917</v>
-      </c>
+        <v>6.4967155192810075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="18">
+        <v>4</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="18">
+        <v>5</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="18">
+        <v>6</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="18">
+        <v>3</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="18">
+        <v>24</v>
+      </c>
+      <c r="G46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55"/>
     </row>
   </sheetData>
-  <sortState ref="L2:L10">
-    <sortCondition ref="L2"/>
+  <sortState ref="M2:M10">
+    <sortCondition ref="M2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="4">
-    <tablePart r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="3">
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>12.079000000000001</v>
+      </c>
+      <c r="B4" s="8">
+        <v>19.277999999999999</v>
+      </c>
+      <c r="D4" s="24">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E4" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D4,E$30,E$31,FALSE)</f>
+        <v>3.353830201946869E-2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>15.686999999999999</v>
+      </c>
+      <c r="H4" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G4,H$30,H$31,FALSE)</f>
+        <v>3.4324579733501934E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>16.791</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18.741</v>
+      </c>
+      <c r="D5" s="25">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="E5" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D5,E$30,E$31,FALSE)</f>
+        <v>3.9276155137901697E-2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>17.393999999999998</v>
+      </c>
+      <c r="H5" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G5,H$30,H$31,FALSE)</f>
+        <v>5.2335602361301317E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>21.213999999999999</v>
+      </c>
+      <c r="D6" s="24">
+        <v>9.4009999999999998</v>
+      </c>
+      <c r="E6" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D6,E$30,E$31,FALSE)</f>
+        <v>4.6539233558148506E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <v>17.425000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G6,H$30,H$31,FALSE)</f>
+        <v>5.2673973890945316E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="B7" s="9">
+        <v>15.686999999999999</v>
+      </c>
+      <c r="D7" s="24">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="E7" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D7,E$30,E$31,FALSE)</f>
+        <v>4.9557481752519318E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="H7" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G7,H$30,H$31,FALSE)</f>
+        <v>5.3601104852603297E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>14.669</v>
+      </c>
+      <c r="B8" s="8">
+        <v>22.803000000000001</v>
+      </c>
+      <c r="D8" s="24">
+        <v>10.638999999999999</v>
+      </c>
+      <c r="E8" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D8,E$30,E$31,FALSE)</f>
+        <v>7.0909419149573535E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>17.96</v>
+      </c>
+      <c r="H8" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G8,H$30,H$31,FALSE)</f>
+        <v>5.8469772442118012E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12.238</v>
+      </c>
+      <c r="B9" s="9">
+        <v>20.878</v>
+      </c>
+      <c r="D9" s="24">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="E9" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D9,E$30,E$31,FALSE)</f>
+        <v>8.5065089521935033E-2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="H9" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G9,H$30,H$31,FALSE)</f>
+        <v>6.5572482458456247E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>14.692</v>
+      </c>
+      <c r="B10" s="8">
+        <v>24.571999999999999</v>
+      </c>
+      <c r="D10" s="24">
+        <v>12.079000000000001</v>
+      </c>
+      <c r="E10" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D10,E$30,E$31,FALSE)</f>
+        <v>9.8348849231329E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>18.741</v>
+      </c>
+      <c r="H10" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G10,H$30,H$31,FALSE)</f>
+        <v>6.6533458845392413E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="B11" s="9">
+        <v>17.393999999999998</v>
+      </c>
+      <c r="D11" s="25">
+        <v>12.13</v>
+      </c>
+      <c r="E11" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D11,E$30,E$31,FALSE)</f>
+        <v>9.9176197315901757E-2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>19.277999999999999</v>
+      </c>
+      <c r="H11" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G11,H$30,H$31,FALSE)</f>
+        <v>7.1562123458211044E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>9.4009999999999998</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20.762</v>
+      </c>
+      <c r="D12" s="24">
+        <v>12.238</v>
+      </c>
+      <c r="E12" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D12,E$30,E$31,FALSE)</f>
+        <v>0.10087816321201472</v>
+      </c>
+      <c r="G12" s="24">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H12" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G12,H$30,H$31,FALSE)</f>
+        <v>7.9486091651150156E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>14.48</v>
+      </c>
+      <c r="B13" s="9">
+        <v>26.282</v>
+      </c>
+      <c r="D13" s="25">
+        <v>12.369</v>
+      </c>
+      <c r="E13" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D13,E$30,E$31,FALSE)</f>
+        <v>0.10284588866696108</v>
+      </c>
+      <c r="G13" s="25">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="H13" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G13,H$30,H$31,FALSE)</f>
+        <v>8.0069376028407913E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>22.327999999999999</v>
+      </c>
+      <c r="B14" s="8">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="D14" s="24">
+        <v>12.944000000000001</v>
+      </c>
+      <c r="E14" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D14,E$30,E$31,FALSE)</f>
+        <v>0.11004592602913879</v>
+      </c>
+      <c r="G14" s="24">
+        <v>20.762</v>
+      </c>
+      <c r="H14" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G14,H$30,H$31,FALSE)</f>
+        <v>8.1796969533541528E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>15.298</v>
+      </c>
+      <c r="B15" s="9">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="D15" s="25">
+        <v>14.233000000000001</v>
+      </c>
+      <c r="E15" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D15,E$30,E$31,FALSE)</f>
+        <v>0.11572496033899676</v>
+      </c>
+      <c r="G15" s="25">
+        <v>20.878</v>
+      </c>
+      <c r="H15" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G15,H$30,H$31,FALSE)</f>
+        <v>8.231069115290926E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15.073</v>
+      </c>
+      <c r="B16" s="8">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D16" s="24">
+        <v>14.48</v>
+      </c>
+      <c r="E16" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D16,E$30,E$31,FALSE)</f>
+        <v>0.11499074696706647</v>
+      </c>
+      <c r="G16" s="24">
+        <v>21.157</v>
+      </c>
+      <c r="H16" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G16,H$30,H$31,FALSE)</f>
+        <v>8.3351992661658603E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16.928999999999998</v>
+      </c>
+      <c r="B17" s="9">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D17" s="24">
+        <v>14.669</v>
+      </c>
+      <c r="E17" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D17,E$30,E$31,FALSE)</f>
+        <v>0.11403493469751469</v>
+      </c>
+      <c r="G17" s="24">
+        <v>21.213999999999999</v>
+      </c>
+      <c r="H17" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G17,H$30,H$31,FALSE)</f>
+        <v>8.3530239710131113E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>35.255000000000003</v>
+      </c>
+      <c r="D18" s="24">
+        <v>14.692</v>
+      </c>
+      <c r="E18" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D18,E$30,E$31,FALSE)</f>
+        <v>0.11389572926449731</v>
+      </c>
+      <c r="G18" s="24">
+        <v>22.058</v>
+      </c>
+      <c r="H18" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G18,H$30,H$31,FALSE)</f>
+        <v>8.4747804749712052E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12.13</v>
+      </c>
+      <c r="B19" s="9">
+        <v>22.158000000000001</v>
+      </c>
+      <c r="D19" s="24">
+        <v>15.073</v>
+      </c>
+      <c r="E19" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D19,E$30,E$31,FALSE)</f>
+        <v>0.11089183580022376</v>
+      </c>
+      <c r="G19" s="25">
+        <v>22.158000000000001</v>
+      </c>
+      <c r="H19" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G19,H$30,H$31,FALSE)</f>
+        <v>8.4712592745461945E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18.495000000000001</v>
+      </c>
+      <c r="B20" s="8">
+        <v>25.138999999999999</v>
+      </c>
+      <c r="D20" s="24">
+        <v>15.298</v>
+      </c>
+      <c r="E20" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D20,E$30,E$31,FALSE)</f>
+        <v>0.10852909225212969</v>
+      </c>
+      <c r="G20" s="24">
+        <v>22.803000000000001</v>
+      </c>
+      <c r="H20" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G20,H$30,H$31,FALSE)</f>
+        <v>8.3574678618203141E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>10.638999999999999</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="D21" s="25">
+        <v>16.004000000000001</v>
+      </c>
+      <c r="E21" s="22">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D21,E$30,E$31,FALSE)</f>
+        <v>9.8662862671132015E-2</v>
+      </c>
+      <c r="G21" s="24">
+        <v>23.893999999999998</v>
+      </c>
+      <c r="H21" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G21,H$30,H$31,FALSE)</f>
+        <v>7.8267111043015175E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="B22" s="8">
+        <v>17.425000000000001</v>
+      </c>
+      <c r="D22" s="24">
+        <v>16.791</v>
+      </c>
+      <c r="E22" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D22,E$30,E$31,FALSE)</f>
+        <v>8.4427262520711741E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="H22" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G22,H$30,H$31,FALSE)</f>
+        <v>7.3535851761636975E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12.369</v>
+      </c>
+      <c r="B23" s="9">
+        <v>34.287999999999997</v>
+      </c>
+      <c r="D23" s="25">
+        <v>16.928999999999998</v>
+      </c>
+      <c r="E23" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D23,E$30,E$31,FALSE)</f>
+        <v>8.1710465389809334E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>24.571999999999999</v>
+      </c>
+      <c r="H23" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G23,H$30,H$31,FALSE)</f>
+        <v>7.3133598747374309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>12.944000000000001</v>
+      </c>
+      <c r="B24" s="8">
+        <v>23.893999999999998</v>
+      </c>
+      <c r="D24" s="24">
+        <v>18.2</v>
+      </c>
+      <c r="E24" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D24,E$30,E$31,FALSE)</f>
+        <v>5.6057473351176272E-2</v>
+      </c>
+      <c r="G24" s="24">
+        <v>25.138999999999999</v>
+      </c>
+      <c r="H24" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G24,H$30,H$31,FALSE)</f>
+        <v>6.8008016169297955E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>14.233000000000001</v>
+      </c>
+      <c r="B25" s="9">
+        <v>17.96</v>
+      </c>
+      <c r="D25" s="24">
+        <v>18.495000000000001</v>
+      </c>
+      <c r="E25" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D25,E$30,E$31,FALSE)</f>
+        <v>5.0371726943487953E-2</v>
+      </c>
+      <c r="G25" s="25">
+        <v>26.282</v>
+      </c>
+      <c r="H25" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G25,H$30,H$31,FALSE)</f>
+        <v>5.6207095728603926E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>19.71</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22.058</v>
+      </c>
+      <c r="D26" s="24">
+        <v>19.71</v>
+      </c>
+      <c r="E26" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D26,E$30,E$31,FALSE)</f>
+        <v>3.0010477791097129E-2</v>
+      </c>
+      <c r="G26" s="24">
+        <v>34.287999999999997</v>
+      </c>
+      <c r="H26" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G26,H$30,H$31,FALSE)</f>
+        <v>2.8328737961119538E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>16.004000000000001</v>
+      </c>
+      <c r="B27" s="9">
+        <v>21.157</v>
+      </c>
+      <c r="D27" s="24">
+        <v>22.327999999999999</v>
+      </c>
+      <c r="E27" s="15">
+        <f>_xlfn.NORM.DIST('2nd_try'!$D27,E$30,E$31,FALSE)</f>
+        <v>6.4383469180793662E-3</v>
+      </c>
+      <c r="G27" s="24">
+        <v>35.255000000000003</v>
+      </c>
+      <c r="H27" s="23">
+        <f>_xlfn.NORM.DIST('2nd_try'!$G27,H$30,H$31,FALSE)</f>
+        <v>1.6235596631898142E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <f>AVERAGE(D4:D27)</f>
+        <v>14.051124999999997</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="15">
+        <f>AVERAGE(G4:G27)</f>
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9">
+        <f>_xlfn.STDEV.S(D5:D28)</f>
+        <v>3.4425235676512056</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="9">
+        <f>_xlfn.STDEV.S(G5:G28)</f>
+        <v>4.7072173589947743</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="G34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="G35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="G36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="G37" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D38" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="G38" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="18">
+        <v>4</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D40" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="18">
+        <v>5</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="18">
+        <v>3</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D44" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="18">
+        <v>3</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="G45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="G47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D48" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="G48" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="G49" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="G50" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="G51" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D52" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="G52" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="G53" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="18">
+        <v>24</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="18">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>